--- a/biology/Zoologie/Conus_fusellinus/Conus_fusellinus.xlsx
+++ b/biology/Zoologie/Conus_fusellinus/Conus_fusellinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus lombardii est une espèce fossile de mollusques gastéropodes marins de la famille des Conidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine d'escargot à cône est présente sous forme de fossile dans le Miocène de la Nouvelle-Zélande[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine d'escargot à cône est présente sous forme de fossile dans le Miocène de la Nouvelle-Zélande. 
 </t>
         </is>
       </c>
@@ -570,9 +586,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus fusellinus a été décrite pour la première fois en 1917 par le zoologiste, naturaliste, paléontologue et malacologiste néo-zélandais d'origine suisse  Henry Suter (d) (1841-1918)[2].
-Identifiants taxinomiques
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fusellinus a été décrite pour la première fois en 1917 par le zoologiste, naturaliste, paléontologue et malacologiste néo-zélandais d'origine suisse  Henry Suter (d) (1841-1918).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_fusellinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fusellinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ressources relatives au vivant : Global Biodiversity Information Facility World Register of Marine Species  
 Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus fusellinus dans les principales bases sont les suivants :
 CoL : XXFR - GBIF : 7627314 - WoRMS : 831755
